--- a/AnalysisQuestions.xlsx
+++ b/AnalysisQuestions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\SMU\MSDS_6306_Doing_Data_Science\HW_Data\6306-case-study-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B4C399-93B6-4402-B959-E855B654918B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17508" windowHeight="7044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
   <si>
     <t>SelfEmployed</t>
   </si>
@@ -258,7 +264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,10 +323,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,368 +610,410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="27.25" customWidth="1"/>
-    <col min="9" max="9" width="24.5" customWidth="1"/>
-    <col min="10" max="10" width="28.25" customWidth="1"/>
-    <col min="11" max="11" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.234375" customWidth="1"/>
+    <col min="4" max="4" width="20.47265625" customWidth="1"/>
+    <col min="5" max="5" width="20.234375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.37890625" customWidth="1"/>
+    <col min="8" max="8" width="17.37890625" customWidth="1"/>
+    <col min="9" max="9" width="27.234375" customWidth="1"/>
+    <col min="10" max="10" width="24.47265625" customWidth="1"/>
+    <col min="11" max="11" width="28.234375" customWidth="1"/>
+    <col min="12" max="12" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="K7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="F26" t="s">
-        <v>68</v>
-      </c>
       <c r="G26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="H29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
         <v>40</v>
       </c>
-      <c r="D43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
         <v>41</v>
       </c>
-      <c r="D44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
         <v>43</v>
       </c>
-      <c r="D46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
         <v>47</v>
       </c>
-      <c r="B50" t="s">
-        <v>68</v>
-      </c>
       <c r="C50" t="s">
         <v>68</v>
       </c>
@@ -975,7 +1023,7 @@
       <c r="E50" t="s">
         <v>68</v>
       </c>
-      <c r="H50" t="s">
+      <c r="F50" t="s">
         <v>68</v>
       </c>
       <c r="I50" t="s">
@@ -984,96 +1032,108 @@
       <c r="J50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
         <v>48</v>
       </c>
-      <c r="J51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="K51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
         <v>58</v>
       </c>
-      <c r="K61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="L61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
         <v>62</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AnalysisQuestions.xlsx
+++ b/AnalysisQuestions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\SMU\MSDS_6306_Doing_Data_Science\HW_Data\6306-case-study-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B4C399-93B6-4402-B959-E855B654918B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5522B6-B928-4E94-BB6B-B3067270E4E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17508" windowHeight="7044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -293,12 +293,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -313,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,7 +331,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -613,9 +626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:B65"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -625,30 +638,30 @@
     <col min="4" max="4" width="20.47265625" customWidth="1"/>
     <col min="5" max="5" width="20.234375" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.37890625" customWidth="1"/>
-    <col min="8" max="8" width="17.37890625" customWidth="1"/>
-    <col min="9" max="9" width="27.234375" customWidth="1"/>
+    <col min="7" max="7" width="15.37890625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.37890625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="27.234375" style="6" customWidth="1"/>
     <col min="10" max="10" width="24.47265625" customWidth="1"/>
     <col min="11" max="11" width="28.234375" customWidth="1"/>
     <col min="12" max="12" width="19.76171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="4" t="s">
         <v>77</v>
       </c>
@@ -666,13 +679,13 @@
       <c r="F2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -692,7 +705,7 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -707,10 +720,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K6" t="s">
@@ -817,10 +830,10 @@
       <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -858,13 +871,13 @@
       <c r="A26" t="s">
         <v>68</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G26" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -882,10 +895,10 @@
       <c r="A29" t="s">
         <v>68</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1026,7 +1039,7 @@
       <c r="F50" t="s">
         <v>68</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J50" t="s">

--- a/AnalysisQuestions.xlsx
+++ b/AnalysisQuestions.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\SMU\MSDS_6306_Doing_Data_Science\HW_Data\6306-case-study-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\6306\6306-case-study-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5522B6-B928-4E94-BB6B-B3067270E4E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CDFF6884-BE40-4C33-BFFC-6EC63E820C18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17508" windowHeight="7044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17505" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>SelfEmployed</t>
   </si>
@@ -626,27 +626,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="topRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.234375" customWidth="1"/>
-    <col min="4" max="4" width="20.47265625" customWidth="1"/>
-    <col min="5" max="5" width="20.234375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.37890625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.37890625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="27.234375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="24.47265625" customWidth="1"/>
-    <col min="11" max="11" width="28.234375" customWidth="1"/>
-    <col min="12" max="12" width="19.76171875" customWidth="1"/>
+    <col min="2" max="2" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="27.25" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="28.25" customWidth="1"/>
+    <col min="12" max="12" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
         <v>63</v>
       </c>
@@ -666,7 +666,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>64</v>
       </c>
@@ -698,7 +698,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -709,17 +709,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>68</v>
       </c>
@@ -730,7 +730,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -741,22 +741,22 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -767,12 +767,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -783,7 +783,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -794,12 +794,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -810,12 +810,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -826,7 +826,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -837,37 +837,37 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -881,17 +881,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -902,72 +902,72 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -978,7 +978,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -989,12 +989,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1004,23 +1004,26 @@
       <c r="E46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -1060,52 +1063,52 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -1116,22 +1119,22 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>

--- a/AnalysisQuestions.xlsx
+++ b/AnalysisQuestions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\SMU\MSDS_6306_Doing_Data_Science\HW_Data\6306-case-study-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5522B6-B928-4E94-BB6B-B3067270E4E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F438D139-A381-4760-BB48-26284086A398}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17508" windowHeight="7044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
